--- a/excel/src/main/resources/面试登记表.xlsx
+++ b/excel/src/main/resources/面试登记表.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11560"/>
+    <workbookView windowWidth="21000" windowHeight="11595"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="没有被重命名" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -34,7 +34,7 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>#{Person.name}</t>
+    <t>#{Person.name}阿萨德</t>
   </si>
   <si>
     <t>性别</t>
@@ -145,22 +145,22 @@
     <t>学位</t>
   </si>
   <si>
-    <t>${Teach.startTime}</t>
+    <t>${teachList.startTime}</t>
   </si>
   <si>
     <t>—</t>
   </si>
   <si>
-    <t>${Teach.endTime}</t>
-  </si>
-  <si>
-    <t>${Teach.schoolName}</t>
-  </si>
-  <si>
-    <t>${Teach.major}</t>
-  </si>
-  <si>
-    <t>${Teach.degree}</t>
+    <t>${teachList.endTime}</t>
+  </si>
+  <si>
+    <t>${teachList.schoolName}</t>
+  </si>
+  <si>
+    <t>${teachList.major}</t>
+  </si>
+  <si>
+    <t>${teachList.degree}</t>
   </si>
   <si>
     <t>业务专长及成果</t>
@@ -243,11 +243,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -274,6 +274,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -282,28 +380,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -311,11 +387,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,89 +417,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -427,187 +427,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,6 +641,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -726,6 +737,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -735,6 +757,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -749,33 +780,76 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -784,15 +858,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,218 +876,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,55 +1036,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1093,117 +1117,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1470,26 +1470,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.2142857142857" customWidth="1"/>
-    <col min="2" max="2" width="2.97321428571429" customWidth="1"/>
-    <col min="3" max="3" width="17.4107142857143" customWidth="1"/>
-    <col min="4" max="4" width="16.5089285714286" customWidth="1"/>
-    <col min="5" max="5" width="13.2410714285714" customWidth="1"/>
-    <col min="6" max="6" width="15.1696428571429" customWidth="1"/>
-    <col min="7" max="7" width="19.1964285714286" customWidth="1"/>
+    <col min="1" max="1" width="16.2166666666667" customWidth="1"/>
+    <col min="2" max="2" width="2.975" customWidth="1"/>
+    <col min="3" max="3" width="17.4083333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.5083333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.2416666666667" customWidth="1"/>
+    <col min="6" max="6" width="15.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="19.2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.2" spans="1:7">
+    <row r="1" ht="20.25" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1498,507 +1498,507 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="31"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="33"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="34"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="33"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="35"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="23"/>
+      <c r="G14" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="35"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="15" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="35"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="39"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="40"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="40"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="41"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="35"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="34"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="26"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="33"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="34"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="33"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="6" t="s">
         <v>66</v>
       </c>
     </row>
